--- a/ExportedFolder/Invoice5_1-1.xlsx
+++ b/ExportedFolder/Invoice5_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -58,22 +58,37 @@
     <x:t>1912 Harvest Lane New York, NY 12210</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pineview Cambridge, MA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/02/2019</x:t>
+    <x:t>0.95697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Smith 3787 Pineview Drive Cambridge, MA 12210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9714968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9717363</x:t>
   </x:si>
   <x:si>
     <x:t>US-001</x:t>
   </x:si>
   <x:si>
-    <x:t>$154.06</x:t>
+    <x:t>0.9424021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9781744</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8856071</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -85,13 +100,11 @@
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Address Line 1","Pineview"
+"Address Line 1","John Smith 3787 Pineview Drive"
 "City","Cambridge"
 "Country","United States"
-"State / County / Province","Massachusetts"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-11-02</x:t>
+"State / County / Province","Massachusetts"
+"Zip Postal Code","12210"</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
@@ -118,31 +131,67 @@
     <x:t>Amount - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1 Front and rear brake cables</x:t>
+    <x:t>Front and rear brake cables</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9729268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9142942</x:t>
   </x:si>
   <x:si>
     <x:t>100.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9947079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9882685</x:t>
+  </x:si>
+  <x:si>
     <x:t>New set of pedal arms</x:t>
   </x:si>
   <x:si>
+    <x:t>0.977573</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
+    <x:t>0.894157</x:t>
+  </x:si>
+  <x:si>
     <x:t>15.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9906886</x:t>
+  </x:si>
+  <x:si>
     <x:t>30.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9917618</x:t>
+  </x:si>
+  <x:si>
     <x:t>Labor 3hrs</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9826454</x:t>
+  </x:si>
+  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t>5.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9820072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9919729</x:t>
   </x:si>
   <x:si>
     <x:t>1.00</x:t>
@@ -197,7 +246,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -570,31 +631,31 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -657,40 +718,40 @@
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="A2" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -715,106 +776,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -839,106 +900,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
